--- a/ig/ch-core/ValueSet-ech-7-cantonabbreviation.xlsx
+++ b/ig/ch-core/ValueSet-ech-7-cantonabbreviation.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T13:50:36+01:00</t>
+    <t>2023-12-28T08:46:25+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
